--- a/ip.xlsx
+++ b/ip.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -386,7 +386,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>泰国</t>
+          <t>泰国Total Access Communication PLC.</t>
         </is>
       </c>
     </row>
@@ -398,7 +398,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>泰国</t>
+          <t>泰国曼谷Total Access Communication PLC.</t>
         </is>
       </c>
     </row>
@@ -410,391 +410,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>泰国</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1.46.9.66</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>泰国</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1.47.111.70</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>泰国</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1.47.129.193</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>泰国</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1.47.201.27</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>泰国</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>100.91.22.90</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>共享地址</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>100.91.231.124</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>共享地址</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>100.91.242.248</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>共享地址</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>100.91.26.146</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>共享地址</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>100.91.35.217</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>共享地址</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>100.91.35.85</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>共享地址</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>100.91.40.179</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>共享地址</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>101.70.137.159</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>浙江湖州联通</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>101.70.243.7</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>浙江嘉兴联通</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>101.71.37.167</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>浙江杭州联通</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>101.80.224.12</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>上海电信</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>103.90.92.64</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>江苏盐城联通</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>110.212.252.218</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>广西南宁铁通</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>110.53.61.166</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>湖南邵阳联通</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>111.1.152.115</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>浙江嘉兴移动</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>111.1.152.125</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>浙江嘉兴移动</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>111.1.152.15</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>浙江嘉兴移动</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>111.1.152.19</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>浙江嘉兴移动</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>111.1.152.209</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>浙江嘉兴移动</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>111.1.152.213</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>浙江嘉兴移动</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>111.1.152.235</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>浙江嘉兴移动</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>111.1.152.236</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>浙江嘉兴移动</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>111.1.152.33</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>浙江嘉兴移动</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>111.1.152.5</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>浙江嘉兴移动</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>111.1.152.55</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>浙江嘉兴移动</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>111.1.152.60</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>浙江嘉兴移动</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>111.1.152.67</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>浙江嘉兴移动</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>111.1.152.88</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>浙江嘉兴移动</t>
+          <t>泰国Total Access Communication PLC.</t>
         </is>
       </c>
     </row>

--- a/ip.xlsx
+++ b/ip.xlsx
@@ -381,36 +381,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.46.129.79</t>
+          <t>112.97.192.118</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>泰国Total Access Communication PLC.</t>
+          <t>中国广东省深圳市中国联通</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.46.130.238</t>
+          <t>112.97.192.132</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>泰国曼谷Total Access Communication PLC.</t>
+          <t>中国广东省深圳市中国联通</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.46.196.242</t>
+          <t>112.97.192.223</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>泰国Total Access Communication PLC.</t>
+          <t>中国广东省深圳市中国联通</t>
         </is>
       </c>
     </row>
